--- a/Data/Excel2.xlsx
+++ b/Data/Excel2.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diegoestepa\Documents\TestNgEsqueletoClaro\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diegoestepa\Documents\SkandiaQA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E6E780-860F-42C8-8BAA-0EA5E042233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C635A041-1511-44D3-8078-BD26FF57E948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2460" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>Ejecutar</t>
   </si>
@@ -42,9 +44,6 @@
     <t>SI</t>
   </si>
   <si>
-    <t>-70907261</t>
-  </si>
-  <si>
     <t>12</t>
   </si>
   <si>
@@ -58,6 +57,42 @@
   </si>
   <si>
     <t>prueba1234</t>
+  </si>
+  <si>
+    <t>-71218223</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>Ejecutar1</t>
+  </si>
+  <si>
+    <t>Evidencia1</t>
+  </si>
+  <si>
+    <t>Ejecutar2</t>
+  </si>
+  <si>
+    <t>Evidencia2</t>
+  </si>
+  <si>
+    <t>Contraseña1</t>
+  </si>
+  <si>
+    <t>Usuario2</t>
+  </si>
+  <si>
+    <t>Contraseña2</t>
+  </si>
+  <si>
+    <t>Documento1</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -376,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -396,44 +431,152 @@
     <col min="15" max="15" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0DD724-BE67-47EE-B94D-8225CB7FFD14}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E917BAD6-AC14-4406-A97D-57144010DFCE}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2">
+        <v>-71218223</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
